--- a/Dokumentation/tables/BAT_Berechnung_Energiebedarf_Gesamt.xlsx
+++ b/Dokumentation/tables/BAT_Berechnung_Energiebedarf_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7AE638-37C5-4948-968E-3439964B8EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBC468-E863-4C80-96B4-98BF4AA88052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5160" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="26">
   <si>
     <t>mAh</t>
   </si>
@@ -110,13 +110,19 @@
   </si>
   <si>
     <t>Total Arbeitstag à 12h</t>
+  </si>
+  <si>
+    <t>Berechnet</t>
+  </si>
+  <si>
+    <t>Gemessen</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -134,6 +140,14 @@
     <font>
       <b/>
       <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -166,13 +180,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -459,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -473,18 +488,18 @@
     <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -501,7 +516,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -512,7 +527,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -524,7 +539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
@@ -536,7 +551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -556,7 +571,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -568,7 +583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -580,7 +595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -589,7 +604,20 @@
         <v>8.0000000000000018</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -599,8 +627,17 @@
       <c r="C16" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16">
+        <v>1760</v>
+      </c>
+      <c r="I16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -610,8 +647,17 @@
       <c r="C17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17">
+        <v>780</v>
+      </c>
+      <c r="I17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -624,8 +670,17 @@
       <c r="D18" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18">
+        <v>820</v>
+      </c>
+      <c r="I18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -635,8 +690,17 @@
       <c r="C19" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19">
+        <v>70</v>
+      </c>
+      <c r="I19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -646,8 +710,17 @@
       <c r="C20" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>19</v>
+      </c>
+      <c r="H20">
+        <v>103</v>
+      </c>
+      <c r="I20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -658,8 +731,18 @@
       <c r="C22" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>22</v>
+      </c>
+      <c r="H22">
+        <f>SUM(H16:H20)/1000</f>
+        <v>3.5329999999999999</v>
+      </c>
+      <c r="I22" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
@@ -668,6 +751,16 @@
         <v>56.862000000000002</v>
       </c>
       <c r="C23" t="s">
+        <v>0</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23">
+        <f>H22*12</f>
+        <v>42.396000000000001</v>
+      </c>
+      <c r="I23" t="s">
         <v>0</v>
       </c>
     </row>

--- a/Dokumentation/tables/BAT_Berechnung_Energiebedarf_Gesamt.xlsx
+++ b/Dokumentation/tables/BAT_Berechnung_Energiebedarf_Gesamt.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Studium\Module\TA.BA_BAA+E.F2401\Entwicklung\Dokumentation\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FBC468-E863-4C80-96B4-98BF4AA88052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E80F45-783F-42E3-A9AB-F380B2AA234C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="2508" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -477,7 +477,7 @@
   <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -622,7 +622,7 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>3200</v>
+        <v>2842</v>
       </c>
       <c r="C16" t="s">
         <v>20</v>
@@ -726,7 +726,7 @@
       </c>
       <c r="B22">
         <f>SUM(B16:B20)/1000</f>
-        <v>4.7385000000000002</v>
+        <v>4.3804999999999996</v>
       </c>
       <c r="C22" t="s">
         <v>0</v>
@@ -748,7 +748,7 @@
       </c>
       <c r="B23">
         <f>B22*12</f>
-        <v>56.862000000000002</v>
+        <v>52.565999999999995</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
